--- a/data/rival.xlsx
+++ b/data/rival.xlsx
@@ -963,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CB0C30-A935-445D-8022-3321E6129271}">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
